--- a/pred_ohlcv/54_21/2020-01-20 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 ETC ohlcv.xlsx
@@ -8166,7 +8166,7 @@
         <v>-47767.75752211837</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-43171.57952976837</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-45062.28712976837</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-45342.40572976837</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-42249.57482976837</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-42839.86682976837</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-43013.86682976837</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-43431.86682976837</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-43274.72172976837</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-43144.15252976837</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-42901.60309400711</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-42822.81439400712</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-43066.03299400712</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-43414.94179400711</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-43408.63179400712</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-43308.63179400712</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-43232.40789400712</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-43240.08789400712</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-44734.02140033623</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-45042.59240033624</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-44899.85980033623</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-45096.69050033623</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-45062.51420033623</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-44867.93440033623</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-45031.87750033623</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-45600.06020033623</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-46152.81380033623</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-46002.95980033623</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-46102.95980033623</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-45790.79380033623</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-45656.11690033623</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-45857.02080033623</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-45283.07210033623</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-45456.23500033623</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-45456.23500033623</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-44567.72930033623</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-44548.17980033623</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-44263.17980033623</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-44154.72150033623</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-43859.08450033623</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-43882.75190033622</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-43889.25980033622</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-44167.08870033622</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-44473.33350033622</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-44682.14407906285</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-44789.55877906286</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-44785.68997906286</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-43659.44977906286</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-43659.44977906286</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-45011.16569907287</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-44785.51899559395</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-46245.02549559395</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-45543.20129559395</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-45540.43759559395</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-45805.18879559395</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-45404.25869559395</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-45628.66619559395</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-46345.12130979304</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-41323.85690979304</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-41323.85690979304</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-40861.60835619992</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-41288.60535619991</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-65647.97677913652</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-70303.40747913651</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-70303.40747913651</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-67976.04517913652</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-70751.71777913652</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-70395.24707913652</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-68085.03107913652</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-75793.46392278124</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-78724.06652278124</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-77074.66079793934</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-76088.81149793934</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-80111.85389793935</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-78302.54039793934</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-81611.77339793934</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-77569.57349793933</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-74175.80619793932</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-77380.09709793932</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-79754.84539793932</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-82009.56989793932</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-90258.02646255321</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-90258.02646255321</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-90988.33346255322</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-89304.71586255322</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-88223.90871789913</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-90964.47231789913</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-90848.82201789913</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-90852.98721789914</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-92186.11221789914</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-92186.11221789914</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-91964.83321789914</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-91356.78965100583</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-91106.77475100584</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-91159.95155100584</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-90934.61195100583</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-98911.82918557044</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-97186.33038557044</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-96548.70118557045</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-96470.76528557045</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-95538.33438557044</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-84760.94498557044</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-86246.24454852394</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-85542.13901147744</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-86709.01701147744</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-85653.66361147744</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-85952.28391147744</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-86858.98751147743</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-86778.06239850238</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-86241.56079850238</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-84186.75718433398</v>
       </c>
       <c r="H691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-79595.31008433398</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-79040.48738433397</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-77992.41438433397</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-77519.09168433397</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-78426.78048433397</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-78975.02351659203</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-80132.61679792401</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-80784.27299792401</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-80146.81689792401</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-79314.43299792401</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-78155.52023018208</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-72839.49933018208</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-69855.04073018208</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-29454.61153049245</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-29603.44903049245</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-28293.60193049245</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-26623.18463049245</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-22347.90803983207</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-26771.74023983207</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-29071.01503983207</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-27931.94036103575</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-29498.22814716016</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-28009.71484716016</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-26798.49114716016</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-27467.67774716016</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-27467.67774716016</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-24643.95724716016</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-26851.28064716016</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-28069.13424716016</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-30080.02872929272</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-25479.56272929272</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-27549.04272929272</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-25516.82402929272</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-22594.18552929272</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-22071.96182929272</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-25185.91599202087</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-27383.38139202087</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-29287.27889202087</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-28116.67289202087</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-94505.99314236941</v>
       </c>
       <c r="H1212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-90665.63014236941</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-90665.63014236941</v>
       </c>
       <c r="H1215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-94854.80134236941</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-95275.47154236941</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-96531.39783881944</v>
       </c>
       <c r="H1219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-100954.2474388194</v>
       </c>
       <c r="H1220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-100954.2474388194</v>
       </c>
       <c r="H1221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-96352.20936742501</v>
       </c>
       <c r="H1224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>-79681.89053957061</v>
       </c>
       <c r="H1230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-78563.01003957061</v>
       </c>
       <c r="H1233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-70722.36333957061</v>
       </c>
       <c r="H1234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 ETC ohlcv.xlsx
@@ -8166,7 +8166,7 @@
         <v>-47767.75752211837</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-43171.57952976837</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-45062.28712976837</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-45342.40572976837</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-42249.57482976837</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-42839.86682976837</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-43013.86682976837</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-43431.86682976837</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-43274.72172976837</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-43144.15252976837</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-42901.60309400711</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-42822.81439400712</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-43066.03299400712</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-43414.94179400711</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-43408.63179400712</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-43308.63179400712</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-43232.40789400712</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-43240.08789400712</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-44734.02140033623</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-45042.59240033624</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-44899.85980033623</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-45096.69050033623</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-45062.51420033623</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-44867.93440033623</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-45031.87750033623</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-45600.06020033623</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-46152.81380033623</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-46002.95980033623</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-46102.95980033623</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-45790.79380033623</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-45656.11690033623</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-45857.02080033623</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-45283.07210033623</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-45456.23500033623</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-45456.23500033623</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-44567.72930033623</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-44548.17980033623</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-44263.17980033623</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-44154.72150033623</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-43859.08450033623</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-43882.75190033622</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-43889.25980033622</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-44167.08870033622</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-44473.33350033622</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-44682.14407906285</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-44789.55877906286</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-44785.68997906286</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-43659.44977906286</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-43659.44977906286</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-45011.16569907287</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-44785.51899559395</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-46245.02549559395</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-45543.20129559395</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-45540.43759559395</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-45805.18879559395</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-45404.25869559395</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-45628.66619559395</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-46345.12130979304</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-41323.85690979304</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-41323.85690979304</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-40861.60835619992</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-41288.60535619991</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-65647.97677913652</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-70303.40747913651</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-70303.40747913651</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-67976.04517913652</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-70751.71777913652</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-70395.24707913652</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-68085.03107913652</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-75793.46392278124</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-78724.06652278124</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-77074.66079793934</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-76088.81149793934</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-80111.85389793935</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-78302.54039793934</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-81611.77339793934</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-77569.57349793933</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-74175.80619793932</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-77380.09709793932</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-79754.84539793932</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-82009.56989793932</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-90258.02646255321</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-90258.02646255321</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-90988.33346255322</v>
       </c>
       <c r="H559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-89304.71586255322</v>
       </c>
       <c r="H560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-88223.90871789913</v>
       </c>
       <c r="H561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-90964.47231789913</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-90848.82201789913</v>
       </c>
       <c r="H563">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-90852.98721789914</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-92186.11221789914</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-92186.11221789914</v>
       </c>
       <c r="H566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-91964.83321789914</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-91356.78965100583</v>
       </c>
       <c r="H568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-91106.77475100584</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-91159.95155100584</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-90934.61195100583</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-98911.82918557044</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-97186.33038557044</v>
       </c>
       <c r="H629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-96548.70118557045</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-96470.76528557045</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-95538.33438557044</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-84760.94498557044</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-86246.24454852394</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-85542.13901147744</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-86709.01701147744</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-85653.66361147744</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-85952.28391147744</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-86858.98751147743</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-86778.06239850238</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-86241.56079850238</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-79595.31008433398</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-79040.48738433397</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-77992.41438433397</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-77519.09168433397</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-78426.78048433397</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-78975.02351659203</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-80132.61679792401</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-80784.27299792401</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-80146.81689792401</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-79314.43299792401</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-78155.52023018208</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-72839.49933018208</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-69855.04073018208</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-26623.18463049245</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-22347.90803983207</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-26771.74023983207</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-29071.01503983207</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-27931.94036103575</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-29498.22814716016</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-28009.71484716016</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-26798.49114716016</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-27467.67774716016</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-27467.67774716016</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-24643.95724716016</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-26851.28064716016</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-28069.13424716016</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-30080.02872929272</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-25479.56272929272</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-27549.04272929272</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-25516.82402929272</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-22594.18552929272</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-22071.96182929272</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-25185.91599202087</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-27383.38139202087</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-29287.27889202087</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-28116.67289202087</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-28963.65119202087</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-27798.49869202087</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-25499.12059202087</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-26465.85629202087</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-16395.69799202087</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-15191.09990052135</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-16787.03267000311</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-94505.99314236941</v>
       </c>
       <c r="H1212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-90665.63014236941</v>
       </c>
       <c r="H1214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-90665.63014236941</v>
       </c>
       <c r="H1215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-95275.47154236941</v>
       </c>
       <c r="H1218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-96531.39783881944</v>
       </c>
       <c r="H1219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-96352.20936742501</v>
       </c>
       <c r="H1224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>-79681.89053957061</v>
       </c>
       <c r="H1230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-79681.89053957061</v>
       </c>
       <c r="H1231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-81262.88413957061</v>
       </c>
       <c r="H1232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-78563.01003957061</v>
       </c>
       <c r="H1233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-70722.36333957061</v>
       </c>
       <c r="H1234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
